--- a/templates/sequence-based-metadata/analysis_template.xlsx
+++ b/templates/sequence-based-metadata/analysis_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub-repositories\ega-metadata-schema\templates\sequence-based-metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE61A1EF-30E9-4D31-9795-9803514E6429}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2BE9DA-6982-40E4-970F-837E5473432C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20520" yWindow="2955" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>Title</t>
-  </si>
-  <si>
-    <t>TODO: a descriptive title for the analysis shown is search results</t>
   </si>
   <si>
     <t>TODO: a detailed description of the analysis</t>
@@ -208,6 +205,9 @@
   </si>
   <si>
     <t>TODO: X/X, X/Y/, XXY, etc.</t>
+  </si>
+  <si>
+    <t>TODO: a descriptive title for the analysis shown in search results</t>
   </si>
 </sst>
 </file>
@@ -587,9 +587,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH4"/>
+  <dimension ref="A1:AH3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -639,46 +641,46 @@
         <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" t="s">
         <v>33</v>
       </c>
-      <c r="L1" t="s">
-        <v>34</v>
-      </c>
       <c r="M1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="P1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>24</v>
-      </c>
-      <c r="R1" t="s">
-        <v>25</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>2</v>
@@ -711,22 +713,22 @@
         <v>6</v>
       </c>
       <c r="AC1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AE1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AE1" s="10" t="s">
-        <v>42</v>
-      </c>
       <c r="AF1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG1" t="s">
         <v>40</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>41</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -740,46 +742,46 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
         <v>30</v>
       </c>
-      <c r="J2" t="s">
-        <v>31</v>
-      </c>
       <c r="K2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="T2" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U2" s="4" t="s">
         <v>7</v>
@@ -791,27 +793,27 @@
         <v>9</v>
       </c>
       <c r="AC2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AE2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="9" t="s">
+      <c r="AF2" t="s">
         <v>45</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>46</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>47</v>
       </c>
-      <c r="AH2" t="s">
-        <v>48</v>
-      </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="T4" s="4" t="s">
-        <v>38</v>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="T3" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/templates/sequence-based-metadata/analysis_template.xlsx
+++ b/templates/sequence-based-metadata/analysis_template.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcasado\Documents\GitHub\ega-metadata-schema\templates\sequence-based-metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370F1237-A610-42F5-AEB1-FDE4506DFE7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198BD29E-A37A-4C2B-B0CA-854998F3BEFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1317,7 +1317,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/templates/sequence-based-metadata/analysis_template.xlsx
+++ b/templates/sequence-based-metadata/analysis_template.xlsx
@@ -8,25 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcasado\Documents\GitHub\ega-metadata-schema\templates\sequence-based-metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEC658E-80AC-493D-975A-B59677A80C48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800AC4A3-13E6-40E1-9A0E-FFC1710D58B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Analysis Data" sheetId="1" r:id="rId1"/>
+    <sheet name="analysis" sheetId="1" r:id="rId1"/>
     <sheet name="Readme" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="165">
   <si>
     <t>Tag</t>
   </si>
@@ -115,57 +123,6 @@
     <t>OtherAnalysis_label</t>
   </si>
   <si>
-    <t>Ref_Alignment.Assembly_name</t>
-  </si>
-  <si>
-    <t>Ref_Alignment.Assembly_accessionVersion</t>
-  </si>
-  <si>
-    <t>Seq_Variation.Assembly_name</t>
-  </si>
-  <si>
-    <t>Seq_Variation.Assembly_accessionVersion</t>
-  </si>
-  <si>
-    <t>Seq_Annotation.Assembly_name</t>
-  </si>
-  <si>
-    <t>Seq_Annotation.Assembly_accessionVersion</t>
-  </si>
-  <si>
-    <t>Processed_Reads.Assembly_name</t>
-  </si>
-  <si>
-    <t>Processed_Reads.Assembly_accessionVersion</t>
-  </si>
-  <si>
-    <t>Genome_Map.Program</t>
-  </si>
-  <si>
-    <t>Genome_Map.Platform</t>
-  </si>
-  <si>
-    <t>Genome_Map.Description</t>
-  </si>
-  <si>
-    <t>Transcriptome_Assembly.Name</t>
-  </si>
-  <si>
-    <t>Transcriptome_Assembly.Type</t>
-  </si>
-  <si>
-    <t>Transcriptome_Assembly.Platform</t>
-  </si>
-  <si>
-    <t>Transcriptome_Assembly.Program</t>
-  </si>
-  <si>
-    <t>Taxonomic_RefSet.Name</t>
-  </si>
-  <si>
-    <t>Taxonomic_RefSet.System</t>
-  </si>
-  <si>
     <t>TODO: The name or relative pathname of an Analysis data file (e.g. path/to/files/file.fastq)</t>
   </si>
   <si>
@@ -175,12 +132,6 @@
     <t>GCA_000001405.1</t>
   </si>
   <si>
-    <t>Ref_Alignment.SequenceAccession</t>
-  </si>
-  <si>
-    <t>Ref_Alignment.SequenceLabel</t>
-  </si>
-  <si>
     <t>CM000663.1</t>
   </si>
   <si>
@@ -211,39 +162,6 @@
     <t>Human Microbiome Project SP56J</t>
   </si>
   <si>
-    <t>Seq_Assembly.Name</t>
-  </si>
-  <si>
-    <t>Seq_Assembly.Type</t>
-  </si>
-  <si>
-    <t>Seq_Assembly.Coverage</t>
-  </si>
-  <si>
-    <t>Seq_Assembly.Platform</t>
-  </si>
-  <si>
-    <t>Seq_Assembly.MinGapLen</t>
-  </si>
-  <si>
-    <t>Seq_Assembly.MoleculeType</t>
-  </si>
-  <si>
-    <t>Seq_Assembly.Program</t>
-  </si>
-  <si>
-    <t>Seq_Assembly.Partial</t>
-  </si>
-  <si>
-    <t>Seq_Variation.Experiment_type</t>
-  </si>
-  <si>
-    <t>Seq_Variation.Program</t>
-  </si>
-  <si>
-    <t>Seq_Variation.Platform</t>
-  </si>
-  <si>
     <t>Whole genome sequencing</t>
   </si>
   <si>
@@ -331,12 +249,6 @@
     <t>Saphyr</t>
   </si>
   <si>
-    <t>ITSoneDB Taxonomic Reference Set</t>
-  </si>
-  <si>
-    <t>NCBI Taxonomy</t>
-  </si>
-  <si>
     <t>TODO: The center name (its acronym) of the submitter's account (e.g. EBI-TEST)</t>
   </si>
   <si>
@@ -355,18 +267,6 @@
     <t xml:space="preserve">TODO: Alias of the parent study (e.g. 'My_study_D13'), used to identify it. </t>
   </si>
   <si>
-    <t>#! This will be changed once EE-1836 is done -- TODO: Standard genome assembly name (e.g. GRCh37). Use this column exclusively if the Analysis is a Reference Alignment.</t>
-  </si>
-  <si>
-    <t>#! This will be changed once EE-1836 is done -- TODO: Standard genome accession version (e.g. GCA_000001405.1). Use this column exclusively if the Analysis is a Reference Alignment.</t>
-  </si>
-  <si>
-    <t>#! This will be changed once EE-1836 is done -- TODO: Standard genome assembly name (e.g. GRCh37). Use this column exclusively if the Analysis is of type Sequence Variation.</t>
-  </si>
-  <si>
-    <t>#! This will be changed once EE-1836 is done -- TODO: Standard genome accession version (e.g. GCA_000001405.1). Use this column exclusively if the Analysis is of type Sequence Variation.</t>
-  </si>
-  <si>
     <t>#! This will be changed once EE-1836 is done -- TODO: Use this column exclusively if the Analysis is of type Sequence Variation.</t>
   </si>
   <si>
@@ -388,18 +288,6 @@
     <t>#! This will be changed once EE-1836 is done -- TODO: Program used for the Sequence Assembly. Only use this column if the Analysis is of type Sequence Assembly.</t>
   </si>
   <si>
-    <t>#! This will be changed once EE-1836 is done -- TODO: Standard genome assembly name (e.g. GRCh37). Use this column exclusively if the Analysis is of type Sequence Annotation.</t>
-  </si>
-  <si>
-    <t>#! This will be changed once EE-1836 is done -- TODO: Standard genome accession version (e.g. GCA_000001405.1). Use this column exclusively if the Analysis is of type Sequence Annotation.</t>
-  </si>
-  <si>
-    <t>#! This will be changed once EE-1836 is done -- TODO: Standard genome assembly name (e.g. GRCh37). Use this column exclusively if the Analysis is of type Processed Reads.</t>
-  </si>
-  <si>
-    <t>#! This will be changed once EE-1836 is done -- TODO: Standard genome accession version (e.g. GCA_000001405.1). Use this column exclusively if the Analysis is of type Processed Reads.</t>
-  </si>
-  <si>
     <t>#! This will be changed once EE-1836 is done -- TODO: Program used for the Genome Mapping. Use this column exclusively if the Analysis is of type Genome Map.</t>
   </si>
   <si>
@@ -418,12 +306,6 @@
     <t>#! This will be changed once EE-1836 is done -- TODO: Program used for the transcriptome assembly. Use this column exclusively if the Analysis is of type Transcriptome Assembly.</t>
   </si>
   <si>
-    <t>#! This will be changed once EE-1836 is done -- TODO: Name of the Taxonomic reference set. Use this column exclusively if the Analysis is of type Taxonomic reference set.</t>
-  </si>
-  <si>
-    <t>#! This will be changed once EE-1836 is done -- TODO: System of the Taxonomic reference set. Use this column exclusively if the Analysis is of type Taxonomic reference set.</t>
-  </si>
-  <si>
     <t>TODO: The name of the checklist (e.g. 'D13_liver_checklist').</t>
   </si>
   <si>
@@ -446,14 +328,6 @@
   </si>
   <si>
     <t>#! This will be changed once EE-1836 is done -- TODO: Specifies if the Sequence assembly is partial or not (use 'True' or 'False'). Only use this column if the Analysis is of type Sequence Assembly.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#! This will be changed once EE-1836 is done -- TODO: Accession of the sequence for the reference alignment in format 'Accession.version', with version being mandatory (e.g. CM000663.1). Use this column exclusively if the Analysis is a Reference Alignment or Sequence Variation.
-In case you want to provide several sequence details, repeat the block 'Ref_Alignment.SequenceAccession' - 'Ref_Alignment.SequenceLabel' as many times as needed. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#! This will be changed once EE-1836 is done -- TODO:  This is how Reference Sequence is labeled in submission file(s) (e.g. chr1). It is equivalent to the @SQ label in a BAM file (optional when submitted file uses INSDC accession.version). Use this column exclusively if the Analysis is a Reference Alignment or Sequence Variation.
-In case you want to provide several sequence details, repeat the block 'Ref_Alignment.SequenceAccession' - 'Ref_Alignment.SequenceLabel' as many times as needed. </t>
   </si>
   <si>
     <t>TODO: The alias of a sample (e.g. 'My_sample_HG1415') associated with the analysis. If there are several samples associated to this analysis, repeat the block 'Sample_alias'-'Sample_Label' as many times as needed.</t>
@@ -763,16 +637,154 @@
     <t>Optional (highly recommended) attributes</t>
   </si>
   <si>
-    <t>Dark grey</t>
-  </si>
-  <si>
-    <t>Ignore this column (based on multiple choice attributes)</t>
-  </si>
-  <si>
     <t>Other colours</t>
   </si>
   <si>
     <t>Repeated blocks (each with their own colour): you can add or remove as many "whole" blocks as you want to fulfil your needs, but remember to always work with complete repetitions (e.g. TAG-VALUE-UNITS columns for an attribute)</t>
+  </si>
+  <si>
+    <t>Analysis_type*</t>
+  </si>
+  <si>
+    <t>Assembly_name</t>
+  </si>
+  <si>
+    <t>Assembly_accessionVersion</t>
+  </si>
+  <si>
+    <t>SEQUENCE.Label</t>
+  </si>
+  <si>
+    <t>SEQUENCE.Accession</t>
+  </si>
+  <si>
+    <t>TODO: Selects the type of Analysis. Based on the chosen type, its corresponding characteristics should be provided (e.g. if the analysis is a SEQUENCE_VARIATION, you shall provide its Assembly_name). Must be value from Controlled vocabulary:  
+	REFERENCE_ALIGNMENT
+	SEQUENCE_VARIATION
+	SEQUENCE_ASSEMBLY
+	SEQUENCE_ANNOTATION
+	SAMPLE_PHENOTYPE
+	PROCESSED_READS
+	GENOME_MAP
+	PATHOGEN_ANALYSIS
+	TRANSCRIPTOME_ASSEMBLY</t>
+  </si>
+  <si>
+    <t>TODO: Standard genome assembly name (e.g. GRCh37). Use this column exclusively if the Analysis is of type REFERENCE_ALIGNMENT, SEQUENCE_VARIATION, SEQUENCE_ANNOTATION or PROCESSED_READS</t>
+  </si>
+  <si>
+    <t>TODO: Standard genome accession version (e.g. GCA_000001405.1). Use this column exclusively if the Analysis is of type REFERENCE_ALIGNMENT, SEQUENCE_VARIATION, SEQUENCE_ANNOTATION or PROCESSED_READS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO: Accession of the sequence for the reference alignment in format 'Accession.version', with version being mandatory (e.g. CM000663.1). Use this column exclusively if the Analysis is of type REFERENCE_ALIGNMENT, SEQUENCE_VARIATION, SEQUENCE_ANNOTATION or PROCESSED_READS
+In case you want to provide several sequence details, repeat the block 'SEQUENCE.Accession' - 'SEQUENCE.Label' as many times as needed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO:  This is how Reference Sequence is labeled in submission file(s) (e.g. chr1). It is equivalent to the @SQ label in a BAM file (optional when submitted file uses INSDC accession.version). Use this column exclusively if the Analysis is of type REFERENCE_ALIGNMENT, SEQUENCE_VARIATION, SEQUENCE_ANNOTATION or PROCESSED_READS
+In case you want to provide several sequence details, repeat the block 'SEQUENCE.Accession' - 'SEQUENCE.Label' as many times as needed. </t>
+  </si>
+  <si>
+    <t>SEQUENCE_VARIATION</t>
+  </si>
+  <si>
+    <t>SEQUENCE_VARIATION.Experiment_type</t>
+  </si>
+  <si>
+    <t>SEQUENCE_VARIATION.Program</t>
+  </si>
+  <si>
+    <t>SEQUENCE_VARIATION.Platform</t>
+  </si>
+  <si>
+    <t>TODO: Use this column exclusively if the Analysis is of type Sequence Variation. Must be value from Controlled vocabulary:
+	Whole genome sequencing
+	Whole transcriptome sequencing
+	Exome sequencing
+	Genotyping by array
+	transcriptomics
+	Curation
+	Genotyping by sequencing
+	Target sequencing</t>
+  </si>
+  <si>
+    <t>SEQUENCE_ASSEMBLY.Name</t>
+  </si>
+  <si>
+    <t>SEQUENCE_ASSEMBLY.Type</t>
+  </si>
+  <si>
+    <t>SEQUENCE_ASSEMBLY.Coverage</t>
+  </si>
+  <si>
+    <t>SEQUENCE_ASSEMBLY.Platform</t>
+  </si>
+  <si>
+    <t>SEQUENCE_ASSEMBLY.MinGapLen</t>
+  </si>
+  <si>
+    <t>SEQUENCE_ASSEMBLY.MoleculeType</t>
+  </si>
+  <si>
+    <t>SEQUENCE_ASSEMBLY.Program</t>
+  </si>
+  <si>
+    <t>SEQUENCE_ASSEMBLY.Partial</t>
+  </si>
+  <si>
+    <t>GENOME_MAP.Program</t>
+  </si>
+  <si>
+    <t>GENOME_MAP.Platform</t>
+  </si>
+  <si>
+    <t>GENOME_MAP.Description</t>
+  </si>
+  <si>
+    <t>TRANSCRIPTOME_ASSEMBLY.Name</t>
+  </si>
+  <si>
+    <t>TRANSCRIPTOME_ASSEMBLY.Type</t>
+  </si>
+  <si>
+    <t>TRANSCRIPTOME_ASSEMBLY.Platform</t>
+  </si>
+  <si>
+    <t>TRANSCRIPTOME_ASSEMBLY.Program</t>
+  </si>
+  <si>
+    <t>Light yellow</t>
+  </si>
+  <si>
+    <t>Columns related to a choice from another column (based on multiple choice attributes) - e.g. if the provided experiment's layout is PAIRED, the two related columns (PAIRED.Nominal_length and PAIRED.Nominal_sdev) will change their header's format to light yellow.</t>
+  </si>
+  <si>
+    <t>Grey</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Column headers that do not appear to be chosen for any metadata instance (row), and thus </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>can be ignored</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (based on multiple choice attributes)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -825,7 +837,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -912,18 +924,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFFFB7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -933,15 +951,6 @@
     </border>
     <border>
       <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
         <color indexed="64"/>
       </left>
       <right/>
@@ -997,12 +1006,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1043,9 +1072,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1056,13 +1082,10 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1071,7 +1094,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1080,13 +1103,24 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1096,42 +1130,30 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFFB7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFFB7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1520,7 +1542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP17"/>
+  <dimension ref="A1:BI17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1536,21 +1558,21 @@
     <col min="5" max="5" width="20.28515625" style="15" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" style="15" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" style="15" customWidth="1"/>
-    <col min="8" max="36" width="15.5703125" style="15" customWidth="1"/>
-    <col min="37" max="37" width="8.7109375" style="2" customWidth="1"/>
-    <col min="38" max="39" width="8.7109375" style="4" customWidth="1"/>
-    <col min="40" max="41" width="15.5703125" style="19" customWidth="1"/>
-    <col min="42" max="43" width="15.5703125" customWidth="1"/>
-    <col min="44" max="45" width="15.5703125" style="19" customWidth="1"/>
-    <col min="46" max="51" width="8.7109375" style="22" customWidth="1"/>
-    <col min="52" max="57" width="8.7109375" style="8" customWidth="1"/>
-    <col min="58" max="59" width="8.7109375" style="21" customWidth="1"/>
-    <col min="60" max="61" width="8.7109375" style="8" customWidth="1"/>
-    <col min="62" max="63" width="8.7109375" style="21" customWidth="1"/>
-    <col min="64" max="68" width="8.7109375" style="8" customWidth="1"/>
+    <col min="8" max="29" width="15.5703125" style="15" customWidth="1"/>
+    <col min="30" max="30" width="8.7109375" style="2" customWidth="1"/>
+    <col min="31" max="32" width="8.7109375" style="4" customWidth="1"/>
+    <col min="33" max="34" width="15.5703125" style="19" customWidth="1"/>
+    <col min="35" max="36" width="15.5703125" customWidth="1"/>
+    <col min="37" max="38" width="15.5703125" style="19" customWidth="1"/>
+    <col min="39" max="44" width="8.7109375" style="22" customWidth="1"/>
+    <col min="45" max="50" width="8.7109375" style="8" customWidth="1"/>
+    <col min="51" max="52" width="8.7109375" style="21" customWidth="1"/>
+    <col min="53" max="54" width="8.7109375" style="8" customWidth="1"/>
+    <col min="55" max="56" width="8.7109375" style="21" customWidth="1"/>
+    <col min="57" max="61" width="8.7109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>17</v>
       </c>
@@ -1575,664 +1597,602 @@
       <c r="H1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="N1" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="O1" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q1" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="R1" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="S1" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="T1" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="U1" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="V1" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="W1" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="X1" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y1" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z1" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA1" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB1" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC1" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG1" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH1" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI1" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ1" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK1" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL1" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR1" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AV1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AW1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX1" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="BA1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="BB1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="BC1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="BD1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="BF1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="BI1" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z2" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA2" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB2" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC2" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG2" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH2" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ2" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK2" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL2" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="AN2" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO2" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP2" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR2" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT2" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AX2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AY2" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ2" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="BB2" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="BC2" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD2" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="BE2" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="BF2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="BG2" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="BH2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI2" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:61" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="L3" s="31"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+    </row>
+    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="J4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>80</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="S4" s="15">
+        <v>10</v>
+      </c>
+      <c r="T4" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="U4" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="V4" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="W4" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="X4" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y4" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z4" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA4" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB4" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC4" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE4" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG4" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="P1" s="15" t="s">
+      <c r="AH4" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK4" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL4" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM4" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN4" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO4" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP4" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ4" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS4" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT4" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW4" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="R1" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="S1" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="T1" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="U1" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="V1" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="W1" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="X1" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y1" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z1" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA1" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB1" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC1" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD1" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE1" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF1" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG1" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH1" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI1" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ1" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN1" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="AO1" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="AP1" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="AQ1" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="AR1" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="AS1" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="AT1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AV1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AW1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AX1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="AY1" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="AZ1" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA1" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="BB1" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="BC1" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="BD1" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="BE1" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="BF1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="BG1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="BH1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="BI1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="BJ1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="BK1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="BL1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="BM1" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="BP1" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="U2" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="W2" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="X2" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y2" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z2" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA2" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB2" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC2" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD2" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE2" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF2" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG2" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH2" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI2" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="AJ2" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AM2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN2" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="AO2" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="AP2" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ2" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="AR2" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS2" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="AT2" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU2" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="AV2" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW2" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX2" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="AY2" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="AZ2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="BA2" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="BB2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="BC2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="BD2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="BE2" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="BF2" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="BG2" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="BH2" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="BI2" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="BJ2" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="BK2" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="BL2" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="BM2" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="BN2" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="BO2" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="BP2" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:68" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="M3" s="32"/>
-      <c r="R3" s="33"/>
-    </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B4" s="15" t="s">
+      <c r="AY4" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="BA4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="BB4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC4" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG4" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="BH4" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="BI4" s="15" t="s">
         <v>59</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="P4" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q4" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="R4" s="15">
-        <v>80</v>
-      </c>
-      <c r="S4" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="T4" s="15">
-        <v>10</v>
-      </c>
-      <c r="U4" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="V4" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="W4" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="X4" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y4" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z4" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA4" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB4" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC4" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD4" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE4" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF4" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG4" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH4" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI4" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ4" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="AK4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL4" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN4" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO4" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR4" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS4" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="AT4" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="AU4" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="AV4" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW4" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="AX4" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="AZ4" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="BA4" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="BB4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="BC4" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="BD4" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="BF4" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="BH4" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI4" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="BJ4" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="BL4" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="BN4" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="BO4" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="BP4" s="15" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F17" s="26"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:F1 P1:W1 AB1:AJ1 AL1:AM1 AT1:AY1 BP1:XFD1 BF1:BG1 H1:J1">
-    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="~*">
+  <conditionalFormatting sqref="A1:F1 AE1:AF1 AM1:AR1 BI1:XFD1 AY1:AZ1 H1:I1 M1:AC1">
+    <cfRule type="containsText" dxfId="13" priority="22" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL1:BM1">
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",BL1)))</formula>
+  <conditionalFormatting sqref="BE1:BF1">
+    <cfRule type="containsText" dxfId="12" priority="20" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",BE1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BN1:BO1">
-    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",BN1)))</formula>
+  <conditionalFormatting sqref="BG1:BH1">
+    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",BG1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:O1">
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",K1)))</formula>
+  <conditionalFormatting sqref="AG1:AH1">
+    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",AG1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X1:Y1">
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",X1)))</formula>
+  <conditionalFormatting sqref="BA1:BB1">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",BA1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z1:AA1">
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",Z1)))</formula>
+  <conditionalFormatting sqref="BC1:BD1">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",BC1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:J1">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",I1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN1:AO1">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",AN1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP1:AQ1">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",AP1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR1:AS1">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",AR1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH1:BI1">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",BH1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ1:BK1">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",BJ1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ1:BE1">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",AZ1)))</formula>
+  <conditionalFormatting sqref="AS1:AX1">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",AS1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AI1:AJ1">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",AI1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK1:AL1">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",AK1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:AC1">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>IF(COUNTIF($I$4:$I$1048576,"*"&amp;LEFT(L$1, FIND(".", L$1)-1)&amp;"*"),"FALSE","TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:AC1">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>IF(COUNTIF($I$4:$I$1048576,"*"&amp;LEFT(L$1, FIND(".", L$1)-1)&amp;"*"),"TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:K1">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>IF(COUNTIF($I$4:$I$1048576,"*REFERENCE_ALIGNMENT*") + COUNTIF($I$4:$I$1048576,"*SEQUENCE_VARIATION*") + COUNTIF($I$4:$I$1048576,"*PROCESSED_READS*") + COUNTIF($I$4:$I$1048576,"*SEQUENCE_ANNOTATION*"),"FALSE","TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:K1">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>IF(COUNTIF($I$4:$I$1048576,"*REFERENCE_ALIGNMENT*") + COUNTIF($I$4:$I$1048576,"*SEQUENCE_VARIATION*") + COUNTIF($I$4:$I$1048576,"*PROCESSED_READS*") + COUNTIF($I$4:$I$1048576,"*SEQUENCE_ANNOTATION*"),"TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="AL4" r:id="rId1" xr:uid="{297D2A7A-A863-4003-B946-81E69BE5E6A5}"/>
+    <hyperlink ref="AE4" r:id="rId1" xr:uid="{297D2A7A-A863-4003-B946-81E69BE5E6A5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -2241,11 +2201,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDAE94EB-7508-4A1F-B82D-046896A33189}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2255,96 +2213,104 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="B2" s="43"/>
+      <c r="A2" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="41"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="B3" s="35" t="s">
+      <c r="A3" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="42">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="43">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="43">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
-        <v>165</v>
+      <c r="A7" s="44" t="s">
+        <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="B9" s="43"/>
+      <c r="A9" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="41"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" s="35" t="s">
+      <c r="A10" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="33" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>170</v>
+      <c r="A11" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>172</v>
+      <c r="A12" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>174</v>
+      <c r="A13" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>176</v>
+      <c r="A14" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/templates/sequence-based-metadata/analysis_template.xlsx
+++ b/templates/sequence-based-metadata/analysis_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcasado\Documents\GitHub\ega-metadata-schema\templates\sequence-based-metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC14C0D-6E74-4A7C-BDFC-B1AB239F9C55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800AC4A3-13E6-40E1-9A0E-FFC1710D58B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="165">
   <si>
     <t>Tag</t>
   </si>
@@ -637,12 +637,6 @@
     <t>Optional (highly recommended) attributes</t>
   </si>
   <si>
-    <t>Dark grey</t>
-  </si>
-  <si>
-    <t>Ignore this column (based on multiple choice attributes)</t>
-  </si>
-  <si>
     <t>Other colours</t>
   </si>
   <si>
@@ -756,6 +750,41 @@
   </si>
   <si>
     <t>TRANSCRIPTOME_ASSEMBLY.Program</t>
+  </si>
+  <si>
+    <t>Light yellow</t>
+  </si>
+  <si>
+    <t>Columns related to a choice from another column (based on multiple choice attributes) - e.g. if the provided experiment's layout is PAIRED, the two related columns (PAIRED.Nominal_length and PAIRED.Nominal_sdev) will change their header's format to light yellow.</t>
+  </si>
+  <si>
+    <t>Grey</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Column headers that do not appear to be chosen for any metadata instance (row), and thus </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>can be ignored</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (based on multiple choice attributes)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -808,7 +837,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -895,18 +924,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFFFB7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -971,12 +1006,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1048,9 +1103,6 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1058,6 +1110,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1535,67 +1598,67 @@
         <v>21</v>
       </c>
       <c r="I1" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="J1" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="K1" s="34" t="s">
-        <v>135</v>
-      </c>
       <c r="L1" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="N1" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="M1" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="N1" s="34" t="s">
+      <c r="O1" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="P1" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q1" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="R1" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="S1" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="T1" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="U1" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="V1" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="W1" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="V1" s="34" t="s">
+      <c r="X1" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="W1" s="34" t="s">
+      <c r="Y1" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="X1" s="34" t="s">
+      <c r="Z1" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="Y1" s="34" t="s">
+      <c r="AA1" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="Z1" s="34" t="s">
+      <c r="AB1" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="AA1" s="34" t="s">
+      <c r="AC1" s="34" t="s">
         <v>160</v>
-      </c>
-      <c r="AB1" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC1" s="34" t="s">
-        <v>162</v>
       </c>
       <c r="AD1" s="5" t="s">
         <v>0</v>
@@ -1607,22 +1670,22 @@
         <v>2</v>
       </c>
       <c r="AG1" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AH1" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AI1" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AJ1" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AK1" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AL1" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AM1" s="9" t="s">
         <v>9</v>
@@ -1720,16 +1783,16 @@
         <v>76</v>
       </c>
       <c r="I2" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="K2" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="J2" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>140</v>
-      </c>
       <c r="L2" s="17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M2" s="15" t="s">
         <v>78</v>
@@ -1792,22 +1855,22 @@
         <v>7</v>
       </c>
       <c r="AG2" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AH2" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AI2" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AJ2" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AK2" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AL2" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AM2" s="22" t="s">
         <v>29</v>
@@ -1884,8 +1947,8 @@
         <v>115</v>
       </c>
       <c r="L3" s="31"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -1913,7 +1976,7 @@
         <v>41</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J4" s="15" t="s">
         <v>30</v>
@@ -2138,11 +2201,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDAE94EB-7508-4A1F-B82D-046896A33189}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2152,10 +2213,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="42"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
@@ -2166,7 +2227,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="42">
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -2174,7 +2235,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="43">
         <v>2</v>
       </c>
       <c r="B5" t="s">
@@ -2182,7 +2243,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="43">
         <v>3</v>
       </c>
       <c r="B6" t="s">
@@ -2190,7 +2251,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="44" t="s">
         <v>121</v>
       </c>
       <c r="B7" t="s">
@@ -2199,10 +2260,10 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="B9" s="42"/>
+      <c r="B9" s="41"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
@@ -2229,19 +2290,27 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
-        <v>129</v>
+      <c r="A13" s="45" t="s">
+        <v>161</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
-        <v>131</v>
+      <c r="A14" s="46" t="s">
+        <v>163</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>132</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
